--- a/Resources/CU_Project_1_final.xlsx
+++ b/Resources/CU_Project_1_final.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{11FE3E3C-C140-435B-BF0C-B6A8C7A1FA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1800" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top 10 Drugs All Years" sheetId="17" r:id="rId1"/>
@@ -2599,7 +2599,7 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
